--- a/documentation/ClassDiagram.xlsx
+++ b/documentation/ClassDiagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2A81BB9-5E17-4793-AA9C-6EB9AA90EAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28B99A0-9DDD-4FDE-95C3-8E0BBD7B9718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{21C248FA-6220-4A7A-94FF-3E85FF0077CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Class Diagram</t>
   </si>
@@ -72,6 +72,105 @@
   </si>
   <si>
     <t>[ # ] checkUser() : Int, String</t>
+  </si>
+  <si>
+    <t>LoginContr</t>
+  </si>
+  <si>
+    <t>[ + ] loginUser() : void</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>[ # ] getUser() : Int, String</t>
+  </si>
+  <si>
+    <t>ComplaintContr</t>
+  </si>
+  <si>
+    <t>[ - ] name : String</t>
+  </si>
+  <si>
+    <t>[ - ] title : String</t>
+  </si>
+  <si>
+    <t>[ - ] desc : String</t>
+  </si>
+  <si>
+    <t>[ - ] gps : String</t>
+  </si>
+  <si>
+    <t>[ - ] comID : Int</t>
+  </si>
+  <si>
+    <t>[ + ] verifyComplaint() : Array</t>
+  </si>
+  <si>
+    <t>Complaint</t>
+  </si>
+  <si>
+    <t>[ # ] setComplaint() : String, Int</t>
+  </si>
+  <si>
+    <t>[ # ] deleteComplaint() : Array</t>
+  </si>
+  <si>
+    <t>[ # ] searchComplaint() : Array</t>
+  </si>
+  <si>
+    <t>DbFetcher</t>
+  </si>
+  <si>
+    <t>[ + ] fetchComplaints() : void</t>
+  </si>
+  <si>
+    <t>[ + ] fetchComplaintID() : Int</t>
+  </si>
+  <si>
+    <t>[ + ] fetchMarkerJSON(): void</t>
+  </si>
+  <si>
+    <t>InputCheck</t>
+  </si>
+  <si>
+    <t>[ - ] emptyUid() : void</t>
+  </si>
+  <si>
+    <t>[ - ] emptyNames() : void</t>
+  </si>
+  <si>
+    <t>[ - ] emptyEmail() : void</t>
+  </si>
+  <si>
+    <t>[ - ] emptyTitle() : void</t>
+  </si>
+  <si>
+    <t>[ - ] emptyGPS() : void</t>
+  </si>
+  <si>
+    <t>[ - ] invalidEmail() : void</t>
+  </si>
+  <si>
+    <t>[ - ] invalidInput() : void</t>
+  </si>
+  <si>
+    <t>[ - ] emptyPasswords() : void</t>
+  </si>
+  <si>
+    <t>[ - ] passwMatcher() : void</t>
+  </si>
+  <si>
+    <t>[ - ] uidTakenCheck() : void</t>
+  </si>
+  <si>
+    <t>[ - ] BindExecutor() : querry</t>
+  </si>
+  <si>
+    <t>[ - ] BindLoubna() : querry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -128,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -216,18 +315,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -247,12 +350,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -567,136 +668,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3696BEB8-DDB4-4334-B10F-9789E88B1057}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="26.08984375" customWidth="1"/>
     <col min="4" max="4" width="26.26953125" customWidth="1"/>
+    <col min="6" max="6" width="26.08984375" customWidth="1"/>
+    <col min="8" max="8" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="7"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
+      <c r="B11" s="4"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
+      <c r="F12" s="4"/>
+      <c r="H12" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="F13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="11"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="H14" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="H15" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="13" t="s">
+      <c r="D16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="H17" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="10" t="s">
+      <c r="D18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="11"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="8"/>
+      <c r="F20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F21" s="8"/>
+      <c r="H21" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H22" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H23" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H24" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H25" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documentation/ClassDiagram.xlsx
+++ b/documentation/ClassDiagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28B99A0-9DDD-4FDE-95C3-8E0BBD7B9718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9A8CD9-47D0-4603-A924-C9F2D31F9748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{21C248FA-6220-4A7A-94FF-3E85FF0077CC}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
-  <si>
-    <t>Class Diagram</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Signup</t>
   </si>
   <si>
-    <t>[ - ] uid : Int</t>
-  </si>
-  <si>
     <t>[ - ] email : String</t>
   </si>
   <si>
@@ -171,6 +165,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>[ - ] uid : String</t>
   </si>
 </sst>
 </file>
@@ -201,18 +198,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -333,27 +324,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -670,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3696BEB8-DDB4-4334-B10F-9789E88B1057}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,15 +674,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -705,13 +694,13 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -726,79 +715,79 @@
     </row>
     <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -806,54 +795,54 @@
       <c r="B11" s="4"/>
       <c r="D11" s="8"/>
       <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
       <c r="F14" s="8"/>
       <c r="H14" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="H15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -861,77 +850,74 @@
       <c r="D17" s="5"/>
       <c r="F17" s="5"/>
       <c r="H17" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
       <c r="F20" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F21" s="8"/>
       <c r="H21" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H22" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H23" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H24" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H25" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H26" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documentation/ClassDiagram.xlsx
+++ b/documentation/ClassDiagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9A8CD9-47D0-4603-A924-C9F2D31F9748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43741FFD-46F1-44AB-91C2-4EDCD3A59069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{21C248FA-6220-4A7A-94FF-3E85FF0077CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Signup</t>
   </si>
@@ -168,6 +168,33 @@
   </si>
   <si>
     <t>[ - ] uid : String</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>[ - ] host : String</t>
+  </si>
+  <si>
+    <t>[ - ] user : String</t>
+  </si>
+  <si>
+    <t>[ - ] passw : String</t>
+  </si>
+  <si>
+    <t>[ - ] db : String</t>
+  </si>
+  <si>
+    <t>[ - ] conn : String</t>
+  </si>
+  <si>
+    <t>[ - ] linkage() : void</t>
+  </si>
+  <si>
+    <t>[ # ] connect() : void</t>
   </si>
 </sst>
 </file>
@@ -198,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +244,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -319,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -342,7 +375,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3696BEB8-DDB4-4334-B10F-9789E88B1057}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,13 +731,15 @@
     </row>
     <row r="2" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -713,6 +751,15 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
     <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>7</v>
@@ -894,30 +941,69 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="H22" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H23" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H24" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H25" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H26" s="8"/>
     </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="8"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documentation/ClassDiagram.xlsx
+++ b/documentation/ClassDiagram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43741FFD-46F1-44AB-91C2-4EDCD3A59069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46E63F0-B156-4A75-87AB-578460AE5A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{21C248FA-6220-4A7A-94FF-3E85FF0077CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Signup</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>[ # ] connect() : void</t>
+  </si>
+  <si>
+    <t>Allen</t>
   </si>
 </sst>
 </file>
@@ -697,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3696BEB8-DDB4-4334-B10F-9789E88B1057}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,6 +763,11 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>7</v>
